--- a/StructureDefinition-HivPreferredThirdPepPrescription.xlsx
+++ b/StructureDefinition-HivPreferredThirdPepPrescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-18T17:57:09+00:00</t>
+    <t>2024-08-18T18:01:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivPreferredThirdPepPrescription.xlsx
+++ b/StructureDefinition-HivPreferredThirdPepPrescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-18T18:01:46+00:00</t>
+    <t>2024-08-18T18:15:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivPreferredThirdPepPrescription.xlsx
+++ b/StructureDefinition-HivPreferredThirdPepPrescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-18T19:05:30+00:00</t>
+    <t>2024-08-18T19:09:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivPreferredThirdPepPrescription.xlsx
+++ b/StructureDefinition-HivPreferredThirdPepPrescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-18T19:09:24+00:00</t>
+    <t>2024-08-21T16:05:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivPreferredThirdPepPrescription.xlsx
+++ b/StructureDefinition-HivPreferredThirdPepPrescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-21T16:05:17+00:00</t>
+    <t>2024-09-25T13:28:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivPreferredThirdPepPrescription.xlsx
+++ b/StructureDefinition-HivPreferredThirdPepPrescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T13:28:49+00:00</t>
+    <t>2024-10-17T13:22:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivPreferredThirdPepPrescription.xlsx
+++ b/StructureDefinition-HivPreferredThirdPepPrescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-17T13:22:30+00:00</t>
+    <t>2024-10-17T13:23:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivPreferredThirdPepPrescription.xlsx
+++ b/StructureDefinition-HivPreferredThirdPepPrescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-17T13:23:47+00:00</t>
+    <t>2024-10-17T13:40:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivPreferredThirdPepPrescription.xlsx
+++ b/StructureDefinition-HivPreferredThirdPepPrescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-17T13:40:48+00:00</t>
+    <t>2024-10-17T13:43:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivPreferredThirdPepPrescription.xlsx
+++ b/StructureDefinition-HivPreferredThirdPepPrescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-17T13:43:39+00:00</t>
+    <t>2024-10-17T13:46:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivPreferredThirdPepPrescription.xlsx
+++ b/StructureDefinition-HivPreferredThirdPepPrescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-17T13:46:08+00:00</t>
+    <t>2024-10-30T19:02:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivPreferredThirdPepPrescription.xlsx
+++ b/StructureDefinition-HivPreferredThirdPepPrescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T19:02:22+00:00</t>
+    <t>2024-10-30T19:04:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivPreferredThirdPepPrescription.xlsx
+++ b/StructureDefinition-HivPreferredThirdPepPrescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T19:04:31+00:00</t>
+    <t>2024-11-07T20:58:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivPreferredThirdPepPrescription.xlsx
+++ b/StructureDefinition-HivPreferredThirdPepPrescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T20:58:48+00:00</t>
+    <t>2024-11-07T21:00:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivPreferredThirdPepPrescription.xlsx
+++ b/StructureDefinition-HivPreferredThirdPepPrescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T21:00:54+00:00</t>
+    <t>2024-11-07T21:07:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
